--- a/export/export_files/ATN BinoX 4T 384 1.255x Thermal Binoculars/ATN BinoX 4T 384 1.255x Thermal.xlsx
+++ b/export/export_files/ATN BinoX 4T 384 1.255x Thermal Binoculars/ATN BinoX 4T 384 1.255x Thermal.xlsx
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://usa-binoculars.com/products/atn-binox-4t-384-1-25-5x-smart-hd-thermal-binoculars-w-laser-rangefinder?srsltid=AfmBOopWvF1zwXgxYm1rtio2kgPt5iTLgs5-m2eBq5VAyqhiftW_TaXR</t>
+          <t>https://usa-binoculars.com/products/atn-binox-4t-384-1-25-5x-smart-hd-thermal-binoculars-w-laser-rangefinder?srsltid=AfmBOoo2_5jlCIyGipbznrUIufXG5SWKqbrpO4lnnrLK1lKy-FN33kNB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.scheels.com/p/atn-binox-4t-1.25-5x19-rangefinding-thermal-binoculars/65817511561.html?srsltid=AfmBOoo4uVzFuk2SGPwvirUjoz5NMyE8XBFXZgfoxS3uegv-9N55B1dk</t>
+          <t>https://www.sportoptics.com/atn-thermal-binoculars.html?srsltid=AfmBOoqiGTRo-iHU4mKARgKiSC1Mmw5uBliPLVCaYcLZe6hp4Mq7xDqA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://nightsightspro.com/products/atn-binox-4t-384-1-25-5x-384x288-19-mm-thermal-binocular-with-laser-range-finder-full-hd-video-rec-wifi-and-smartphone-controlling?srsltid=AfmBOormy34Cq0zH4xu3RPD48HVkr5wlkO3_6YqsiusvKv_Lz2XsASYU</t>
+          <t>https://nightsightspro.com/products/atn-binox-4t-384-1-25-5x-384x288-19-mm-thermal-binocular-with-laser-range-finder-full-hd-video-rec-wifi-and-smartphone-controlling?srsltid=AfmBOoplxsI8DyBwK7NYhdiNXAFouC0jwD8w6XDeIJApTX-Z-Co4LVzb</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.campingworld.com/atn-binox-4t-384-4.5-18x-smart-hd-thermal-binoculars-628041.html?srsltid=AfmBOoqj55l7wTF_zvaUG0DO3EbYXbe67IdQPDrSifACzCblOFGpj1qr</t>
+          <t>https://www.campingworld.com/atn-binox-4t-384-4.5-18x-smart-hd-thermal-binoculars-628041.html?srsltid=AfmBOooPjdhT436LlN2BifLd-xVo8Cy_v_ibN_mcd2ztb0_cvduL0lxG</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">

--- a/export/export_files/ATN BinoX 4T 384 1.255x Thermal Binoculars/ATN BinoX 4T 384 1.255x Thermal.xlsx
+++ b/export/export_files/ATN BinoX 4T 384 1.255x Thermal Binoculars/ATN BinoX 4T 384 1.255x Thermal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,48 +472,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://usa-binoculars.com/products/atn-binox-4t-384-1-25-5x-smart-hd-thermal-binoculars-w-laser-rangefinder?srsltid=AfmBOoo2_5jlCIyGipbznrUIufXG5SWKqbrpO4lnnrLK1lKy-FN33kNB</t>
+          <t>https://usa-binoculars.com/products/atn-binox-4t-384-1-25-5x-smart-hd-thermal-binoculars-w-laser-rangefinder?srsltid=AfmBOor5kK8V5JoSZDoXLyTnjK1S9K60gNRsKm1PAG8uUrIIDNZSWltc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>2699.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.sportoptics.com/atn-thermal-binoculars.html?srsltid=AfmBOoqiGTRo-iHU4mKARgKiSC1Mmw5uBliPLVCaYcLZe6hp4Mq7xDqA</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2699.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://nightsightspro.com/products/atn-binox-4t-384-1-25-5x-384x288-19-mm-thermal-binocular-with-laser-range-finder-full-hd-video-rec-wifi-and-smartphone-controlling?srsltid=AfmBOoplxsI8DyBwK7NYhdiNXAFouC0jwD8w6XDeIJApTX-Z-Co4LVzb</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2799.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.campingworld.com/atn-binox-4t-384-4.5-18x-smart-hd-thermal-binoculars-628041.html?srsltid=AfmBOooPjdhT436LlN2BifLd-xVo8Cy_v_ibN_mcd2ztb0_cvduL0lxG</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3999.0</t>
         </is>
       </c>
     </row>
